--- a/Miscellaneous/BOM_v1.xlsx
+++ b/Miscellaneous/BOM_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="877" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Main Module - Xbee" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="149">
   <si>
     <t>Description</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>For electric pulses</t>
+  </si>
+  <si>
+    <t>End of Life</t>
   </si>
 </sst>
 </file>
@@ -1078,29 +1081,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" customWidth="1"/>
-    <col min="8" max="8" width="106.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="106.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1134,14 +1137,14 @@
         <v>25.4</v>
       </c>
       <c r="D4" s="7">
-        <f>B4*C4</f>
+        <f t="shared" ref="D4:D34" si="0">B4*C4</f>
         <v>25.4</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8">
-        <f>D4/$D$40</f>
+        <f t="shared" ref="F4:F34" si="1">D4/$D$40</f>
         <v>0.35361171206539871</v>
       </c>
       <c r="G4" s="6"/>
@@ -1151,7 +1154,7 @@
       <c r="K4" s="1"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1162,14 +1165,14 @@
         <v>18.190000000000001</v>
       </c>
       <c r="D5" s="7">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>18.190000000000001</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f>D5/$D$40</f>
+        <f t="shared" si="1"/>
         <v>0.25323610403423635</v>
       </c>
       <c r="G5" s="6"/>
@@ -1179,7 +1182,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1190,14 +1193,14 @@
         <v>6.22</v>
       </c>
       <c r="D6" s="7">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>6.22</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8">
-        <f>D6/$D$40</f>
+        <f t="shared" si="1"/>
         <v>8.6593104293180317E-2</v>
       </c>
       <c r="G6" s="6"/>
@@ -1207,7 +1210,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
@@ -1218,14 +1221,14 @@
         <v>3.95</v>
       </c>
       <c r="D7" s="7">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8">
-        <f>D7/$D$40</f>
+        <f t="shared" si="1"/>
         <v>5.4990797742453738E-2</v>
       </c>
       <c r="G7" s="6"/>
@@ -1235,7 +1238,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -1246,14 +1249,14 @@
         <v>3.58</v>
       </c>
       <c r="D8" s="7">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>3.58</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8">
-        <f>D8/$D$40</f>
+        <f t="shared" si="1"/>
         <v>4.9839760991894778E-2</v>
       </c>
       <c r="G8" s="6"/>
@@ -1263,7 +1266,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1274,14 +1277,14 @@
         <v>1.48</v>
       </c>
       <c r="D9" s="7">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>2.96</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8">
-        <f>D9/$D$40</f>
+        <f t="shared" si="1"/>
         <v>4.1208294004471659E-2</v>
       </c>
       <c r="G9" s="6"/>
@@ -1293,7 +1296,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1304,14 +1307,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8">
-        <f>D10/$D$40</f>
+        <f t="shared" si="1"/>
         <v>2.7843441894913286E-2</v>
       </c>
       <c r="G10" s="6"/>
@@ -1323,7 +1326,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1334,14 +1337,14 @@
         <v>1.84</v>
       </c>
       <c r="D11" s="7">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>1.84</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8">
-        <f>D11/$D$40</f>
+        <f t="shared" si="1"/>
         <v>2.5615966543320223E-2</v>
       </c>
       <c r="G11" s="6"/>
@@ -1353,7 +1356,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1364,14 +1367,14 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="D12" s="7">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>1.0349999999999999</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8">
-        <f>D12/$D$40</f>
+        <f t="shared" si="1"/>
         <v>1.4408981180617625E-2</v>
       </c>
       <c r="G12" s="6"/>
@@ -1383,7 +1386,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
@@ -1394,14 +1397,14 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="D13" s="7">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>0.84199999999999997</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8">
-        <f>D13/$D$40</f>
+        <f t="shared" si="1"/>
         <v>1.1722089037758492E-2</v>
       </c>
       <c r="G13" s="6"/>
@@ -1413,7 +1416,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -1424,14 +1427,14 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="D14" s="7">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.77200000000000002</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8">
-        <f>D14/$D$40</f>
+        <f t="shared" si="1"/>
         <v>1.0747568571436529E-2</v>
       </c>
       <c r="G14" s="6"/>
@@ -1443,7 +1446,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1454,14 +1457,14 @@
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="D15" s="7">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>0.75519999999999998</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8">
-        <f>D15/$D$40</f>
+        <f t="shared" si="1"/>
         <v>1.0513683659519256E-2</v>
       </c>
       <c r="G15" s="6"/>
@@ -1473,7 +1476,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1484,14 +1487,14 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D16" s="7">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="8">
-        <f>D16/$D$40</f>
+        <f t="shared" si="1"/>
         <v>8.0745981495248514E-3</v>
       </c>
       <c r="G16" s="6"/>
@@ -1503,7 +1506,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1514,14 +1517,14 @@
         <v>0.43159999999999998</v>
       </c>
       <c r="D17" s="7">
-        <f>B17*C17</f>
+        <f t="shared" si="0"/>
         <v>0.43159999999999998</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8">
-        <f>D17/$D$40</f>
+        <f t="shared" si="1"/>
         <v>6.0086147609222868E-3</v>
       </c>
       <c r="G17" s="6"/>
@@ -1533,7 +1536,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
@@ -1544,14 +1547,14 @@
         <v>0.39639999999999997</v>
       </c>
       <c r="D18" s="7">
-        <f>B18*C18</f>
+        <f t="shared" si="0"/>
         <v>0.39639999999999997</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="8">
-        <f>D18/$D$40</f>
+        <f t="shared" si="1"/>
         <v>5.5185701835718127E-3</v>
       </c>
       <c r="G18" s="6"/>
@@ -1563,7 +1566,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1574,14 +1577,14 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="D19" s="7">
-        <f>B19*C19</f>
+        <f t="shared" si="0"/>
         <v>0.38900000000000001</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="8">
-        <f>D19/$D$40</f>
+        <f t="shared" si="1"/>
         <v>5.4155494485606344E-3</v>
       </c>
       <c r="G19" s="6"/>
@@ -1593,7 +1596,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1604,22 +1607,25 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="D20" s="7">
-        <f>B20*C20</f>
+        <f t="shared" si="0"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="8">
-        <f>D20/$D$40</f>
+        <f t="shared" si="1"/>
         <v>5.345940843823351E-3</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1630,14 +1636,14 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="D21" s="7">
-        <f>B21*C21</f>
+        <f t="shared" si="0"/>
         <v>0.38300000000000001</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="8">
-        <f>D21/$D$40</f>
+        <f t="shared" si="1"/>
         <v>5.3320191228758938E-3</v>
       </c>
       <c r="G21" s="6"/>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>60</v>
       </c>
@@ -1657,14 +1663,14 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="D22" s="7">
-        <f>B22*C22</f>
+        <f t="shared" si="0"/>
         <v>0.33200000000000002</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="8">
-        <f>D22/$D$40</f>
+        <f t="shared" si="1"/>
         <v>4.6220113545556059E-3</v>
       </c>
       <c r="G22" s="6"/>
@@ -1672,7 +1678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1683,14 +1689,14 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="D23" s="7">
-        <f>B23*C23</f>
+        <f t="shared" si="0"/>
         <v>0.32800000000000001</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="8">
-        <f>D23/$D$40</f>
+        <f t="shared" si="1"/>
         <v>4.5663244707657789E-3</v>
       </c>
       <c r="G23" s="6"/>
@@ -1698,7 +1704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -1709,14 +1715,14 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D24" s="7">
-        <f>B24*C24</f>
+        <f t="shared" si="0"/>
         <v>0.29799999999999999</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="8">
-        <f>D24/$D$40</f>
+        <f t="shared" si="1"/>
         <v>4.1486728423420797E-3</v>
       </c>
       <c r="G24" s="6"/>
@@ -1724,7 +1730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1735,14 +1741,14 @@
         <v>0.27</v>
       </c>
       <c r="D25" s="7">
-        <f>B25*C25</f>
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="8">
-        <f>D25/$D$40</f>
+        <f t="shared" si="1"/>
         <v>3.7588646558132936E-3</v>
       </c>
       <c r="G25" s="6"/>
@@ -1750,7 +1756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1761,14 +1767,14 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="D26" s="7">
-        <f>B26*C26</f>
+        <f t="shared" si="0"/>
         <v>0.18719999999999998</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="8">
-        <f>D26/$D$40</f>
+        <f t="shared" si="1"/>
         <v>2.6061461613638833E-3</v>
       </c>
       <c r="G26" s="6"/>
@@ -1776,7 +1782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1787,14 +1793,14 @@
         <v>0.1416</v>
       </c>
       <c r="D27" s="7">
-        <f>B27*C27</f>
+        <f t="shared" si="0"/>
         <v>0.1416</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="8">
-        <f>D27/$D$40</f>
+        <f t="shared" si="1"/>
         <v>1.9713156861598607E-3</v>
       </c>
       <c r="G27" s="6"/>
@@ -1802,7 +1808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D28" s="7">
-        <f>B28*C28</f>
+        <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E28" s="6" t="str">
@@ -1821,7 +1827,7 @@
         <v>USD</v>
       </c>
       <c r="F28" s="8">
-        <f>D28/$D$40</f>
+        <f t="shared" si="1"/>
         <v>6.4039916358300559E-4</v>
       </c>
       <c r="G28" s="6"/>
@@ -1829,7 +1835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1840,14 +1846,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D29" s="7">
-        <f>B29*C29</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="8">
-        <f>D29/$D$40</f>
+        <f t="shared" si="1"/>
         <v>4.1765162842369926E-4</v>
       </c>
       <c r="G29" s="6"/>
@@ -1855,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
@@ -1866,14 +1872,14 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D30" s="7">
-        <f>B30*C30</f>
+        <f t="shared" si="0"/>
         <v>2.76E-2</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="8">
-        <f>D30/$D$40</f>
+        <f t="shared" si="1"/>
         <v>3.8423949814980334E-4</v>
       </c>
       <c r="G30" s="6"/>
@@ -1881,7 +1887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -1892,14 +1898,14 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D31" s="7">
-        <f>B31*C31</f>
+        <f t="shared" si="0"/>
         <v>1.84E-2</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="8">
-        <f>D31/$D$40</f>
+        <f t="shared" si="1"/>
         <v>2.5615966543320225E-4</v>
       </c>
       <c r="G31" s="6"/>
@@ -1907,7 +1913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -1918,14 +1924,14 @@
         <v>1.52E-2</v>
       </c>
       <c r="D32" s="7">
-        <f>B32*C32</f>
+        <f t="shared" si="0"/>
         <v>1.52E-2</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="8">
-        <f>D32/$D$40</f>
+        <f t="shared" si="1"/>
         <v>2.1161015840134097E-4</v>
       </c>
       <c r="G32" s="6"/>
@@ -1933,7 +1939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1944,14 +1950,14 @@
         <v>1.52E-2</v>
       </c>
       <c r="D33" s="7">
-        <f>B33*C33</f>
+        <f t="shared" si="0"/>
         <v>1.52E-2</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="8">
-        <f>D33/$D$40</f>
+        <f t="shared" si="1"/>
         <v>2.1161015840134097E-4</v>
       </c>
       <c r="G33" s="6"/>
@@ -1959,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -1970,14 +1976,14 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="D34" s="7">
-        <f>B34*C34</f>
+        <f t="shared" si="0"/>
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="8">
-        <f>D34/$D$40</f>
+        <f t="shared" si="1"/>
         <v>1.7819802812744502E-4</v>
       </c>
       <c r="G34" s="6"/>
@@ -1985,7 +1991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>62</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -2011,7 +2017,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -2021,7 +2027,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -2031,7 +2037,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -2041,7 +2047,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
@@ -2058,7 +2064,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2120,27 +2126,27 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
     <col min="8" max="8" width="57.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="9" max="9" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
@@ -2187,7 +2193,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2220,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -2261,7 +2267,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="F8" s="8"/>
@@ -2270,7 +2276,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8"/>
@@ -2280,13 +2286,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="F11" s="8"/>
@@ -2296,7 +2302,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="F12" s="8"/>
@@ -2306,7 +2312,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="8"/>
@@ -2316,7 +2322,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="8"/>
@@ -2326,7 +2332,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8"/>
@@ -2336,7 +2342,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8"/>
@@ -2346,43 +2352,43 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L18" s="7"/>
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -2399,102 +2405,102 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F21:F39 F11:F16 F4:F9">
-    <cfRule type="top10" dxfId="2" priority="1" rank="6"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
@@ -2513,27 +2519,27 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="6" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2564,14 +2570,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <f>B4*C4</f>
+        <f t="shared" ref="D4:D18" si="0">B4*C4</f>
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8">
-        <f>D4/$D$24</f>
+        <f t="shared" ref="F4:F18" si="1">D4/$D$24</f>
         <v>0.20673715025242606</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2580,7 +2586,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
@@ -2591,14 +2597,14 @@
         <v>3.58</v>
       </c>
       <c r="D5" s="7">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>3.58</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f>D5/$D$24</f>
+        <f t="shared" si="1"/>
         <v>0.37005949895184265</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2607,7 +2613,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2618,14 +2624,14 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="D6" s="7">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8">
-        <f>D6/$D$24</f>
+        <f t="shared" si="1"/>
         <v>3.9693532848465801E-2</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -2634,7 +2640,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -2645,14 +2651,14 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="D7" s="7">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>0.38300000000000001</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8">
-        <f>D7/$D$24</f>
+        <f t="shared" si="1"/>
         <v>3.9590164273339591E-2</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -2661,7 +2667,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2672,14 +2678,14 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="D8" s="7">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8">
-        <f>D8/$D$24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -2691,7 +2697,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -2702,14 +2708,14 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="D9" s="7">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8">
-        <f>D9/$D$24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -2723,7 +2729,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2734,14 +2740,14 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="D10" s="7">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8">
-        <f>D10/$D$24</f>
+        <f t="shared" si="1"/>
         <v>4.300132725250462E-3</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2752,7 +2758,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2764,14 +2770,14 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D11" s="7">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8">
-        <f>D11/$D$24</f>
+        <f t="shared" si="1"/>
         <v>9.5099089116115981E-4</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2782,7 +2788,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -2794,14 +2800,14 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D12" s="7">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>1.84E-2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8">
-        <f>D12/$D$24</f>
+        <f t="shared" si="1"/>
         <v>1.9019817823223196E-3</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2812,7 +2818,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -2823,14 +2829,14 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D13" s="7">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>0.29799999999999999</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8">
-        <f>D13/$D$24</f>
+        <f t="shared" si="1"/>
         <v>3.0803835387611479E-2</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -2841,7 +2847,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
@@ -2852,14 +2858,14 @@
         <v>0.43159999999999998</v>
       </c>
       <c r="D14" s="7">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.43159999999999998</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8">
-        <f>D14/$D$24</f>
+        <f t="shared" si="1"/>
         <v>4.4613877024473537E-2</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -2870,7 +2876,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
@@ -2881,14 +2887,14 @@
         <v>0.1416</v>
       </c>
       <c r="D15" s="7">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>0.1416</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8">
-        <f>D15/$D$24</f>
+        <f t="shared" si="1"/>
         <v>1.4636990237871765E-2</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -2899,7 +2905,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
@@ -2910,14 +2916,14 @@
         <v>0.35520000000000002</v>
       </c>
       <c r="D16" s="7">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>0.35520000000000002</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="8">
-        <f>D16/$D$24</f>
+        <f t="shared" si="1"/>
         <v>3.6716517884830872E-2</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -2928,7 +2934,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -2939,14 +2945,14 @@
         <v>0.36959999999999998</v>
       </c>
       <c r="D17" s="7">
-        <f>B17*C17</f>
+        <f t="shared" si="0"/>
         <v>0.36959999999999998</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8">
-        <f>D17/$D$24</f>
+        <f t="shared" si="1"/>
         <v>3.8205025366648333E-2</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -2957,7 +2963,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -2968,14 +2974,14 @@
         <v>0.41548000000000002</v>
       </c>
       <c r="D18" s="7">
-        <f>B18*C18</f>
+        <f t="shared" si="0"/>
         <v>1.6619200000000001</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="8">
-        <f>D18/$D$24</f>
+        <f t="shared" si="1"/>
         <v>0.17179030237375595</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -2986,7 +2992,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -2996,32 +3002,32 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -3038,95 +3044,95 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
@@ -3151,28 +3157,28 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="106.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="24.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="106.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -3200,21 +3206,21 @@
         <v>615</v>
       </c>
       <c r="D4" s="7">
-        <f>B4*C4</f>
+        <f t="shared" ref="D4:D17" si="0">B4*C4</f>
         <v>615</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F19" si="0">D4/$D$25</f>
+        <f t="shared" ref="F4:F14" si="1">D4/$D$25</f>
         <v>0.98453319167154696</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -3225,14 +3231,14 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2017339566554376E-3</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3241,7 +3247,7 @@
       <c r="K5" s="7"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
@@ -3252,14 +3258,14 @@
         <v>1.37</v>
       </c>
       <c r="D6" s="7">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>1.37</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1931877603089747E-3</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3269,7 +3275,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -3280,14 +3286,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2017339566554376E-3</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -3296,7 +3302,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -3307,14 +3313,14 @@
         <v>0.47</v>
       </c>
       <c r="D8" s="7">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5240747981402778E-4</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3323,7 +3329,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
@@ -3334,14 +3340,14 @@
         <v>0.26</v>
       </c>
       <c r="D9" s="7">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2486762430956207E-3</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3350,7 +3356,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -3361,14 +3367,14 @@
         <v>0.01</v>
       </c>
       <c r="D10" s="7">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6008669783277187E-5</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3379,7 +3385,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>87</v>
       </c>
@@ -3390,14 +3396,14 @@
         <v>0.02</v>
       </c>
       <c r="D11" s="7">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9210403739932625E-4</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3408,7 +3414,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>88</v>
       </c>
@@ -3419,14 +3425,14 @@
         <v>0.13</v>
       </c>
       <c r="D12" s="7">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1622541436520685E-4</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3437,7 +3443,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -3448,14 +3454,14 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="7">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6008669783277189E-4</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -3466,7 +3472,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>94</v>
       </c>
@@ -3477,14 +3483,14 @@
         <v>0.32</v>
       </c>
       <c r="D14" s="7">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1227743306486999E-4</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -3495,7 +3501,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>0.36959999999999998</v>
       </c>
       <c r="D15" s="7">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>0.36959999999999998</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -3524,7 +3530,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>0.41548000000000002</v>
       </c>
       <c r="D16" s="7">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>1.6619200000000001</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3553,7 +3559,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="7">
-        <f>B17*C17</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3582,7 +3588,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
@@ -3592,7 +3598,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -3602,7 +3608,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
@@ -3612,32 +3618,32 @@
       <c r="N20" s="8"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="F24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>3</v>
       </c>
@@ -3654,95 +3660,95 @@
       <c r="G25" s="18"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="13"/>
@@ -3779,28 +3785,28 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="106.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="5" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="106.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
@@ -3845,7 +3851,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F18" si="0">D5/$D$24</f>
+        <f t="shared" ref="F5:F8" si="0">D5/$D$24</f>
         <v>0.55790805675224719</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3872,7 +3878,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>102</v>
       </c>
@@ -3899,7 +3905,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -3926,7 +3932,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -3953,7 +3959,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8"/>
@@ -3963,7 +3969,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8"/>
@@ -3973,7 +3979,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="F11" s="8"/>
@@ -3983,7 +3989,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="F12" s="8"/>
@@ -3993,7 +3999,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="8"/>
@@ -4003,7 +4009,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="8"/>
@@ -4013,7 +4019,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8"/>
@@ -4023,7 +4029,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8"/>
@@ -4033,7 +4039,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8"/>
@@ -4043,7 +4049,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
@@ -4053,7 +4059,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -4063,32 +4069,32 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -4105,95 +4111,95 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
@@ -4219,28 +4225,28 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="106.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="5" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="106.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
@@ -4285,7 +4291,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>105</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F18" si="0">D5/$D$24</f>
+        <f t="shared" ref="F5:F8" si="0">D5/$D$24</f>
         <v>0.34991519702283908</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -4312,7 +4318,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -4339,7 +4345,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -4366,7 +4372,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -4393,7 +4399,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8"/>
@@ -4403,7 +4409,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8"/>
@@ -4413,7 +4419,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="F11" s="8"/>
@@ -4423,7 +4429,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="F12" s="8"/>
@@ -4433,7 +4439,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="8"/>
@@ -4443,7 +4449,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="8"/>
@@ -4453,7 +4459,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8"/>
@@ -4463,7 +4469,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8"/>
@@ -4473,7 +4479,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8"/>
@@ -4483,7 +4489,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
@@ -4493,7 +4499,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -4503,32 +4509,32 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -4545,95 +4551,95 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
@@ -4659,28 +4665,28 @@
       <selection activeCell="F7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="106.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="5" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="106.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
@@ -4725,7 +4731,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F18" si="0">D5/$D$24</f>
+        <f t="shared" ref="F5:F6" si="0">D5/$D$24</f>
         <v>0.67220373380461895</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -4752,7 +4758,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -4779,11 +4785,11 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="F8" s="8"/>
@@ -4791,7 +4797,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8"/>
@@ -4801,7 +4807,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8"/>
@@ -4811,7 +4817,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="F11" s="8"/>
@@ -4821,7 +4827,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="F12" s="8"/>
@@ -4831,7 +4837,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="8"/>
@@ -4841,7 +4847,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="8"/>
@@ -4851,7 +4857,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8"/>
@@ -4861,7 +4867,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8"/>
@@ -4871,7 +4877,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8"/>
@@ -4881,7 +4887,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
@@ -4891,7 +4897,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -4901,32 +4907,32 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -4943,95 +4949,95 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
@@ -5056,32 +5062,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="33.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="5" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>9.6741200000000003</v>
       </c>
       <c r="D4" s="7">
-        <f>B4*C4</f>
+        <f t="shared" ref="D4:D9" si="0">B4*C4</f>
         <v>9.6741200000000003</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -5129,7 +5135,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>113</v>
       </c>
@@ -5140,14 +5146,14 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="D5" s="7">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>19.899999999999999</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F18" si="0">D5/$D$24</f>
+        <f t="shared" ref="F5:F6" si="1">D5/$D$24</f>
         <v>0.4597826498822124</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -5156,7 +5162,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -5167,14 +5173,14 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="D6" s="7">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>0.18719999999999998</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3251915607010133E-3</v>
       </c>
       <c r="G6" s="6"/>
@@ -5182,7 +5188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
@@ -5193,21 +5199,21 @@
         <v>3.41</v>
       </c>
       <c r="D7" s="7">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>3.41</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F9" si="1">D7/$D$24</f>
+        <f t="shared" ref="F7:F9" si="2">D7/$D$24</f>
         <v>7.8786876185846455E-2</v>
       </c>
       <c r="I7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -5218,14 +5224,14 @@
         <v>7.18</v>
       </c>
       <c r="D8" s="7">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>7.18</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16589142844996407</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -5237,7 +5243,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
@@ -5248,14 +5254,14 @@
         <v>2.93</v>
       </c>
       <c r="D9" s="7">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>2.93</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7696641414818223E-2</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -5269,7 +5275,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -5285,7 +5291,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="F11" s="8"/>
@@ -5295,7 +5301,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="F12" s="8"/>
@@ -5305,7 +5311,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="8"/>
@@ -5315,7 +5321,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="8"/>
@@ -5325,7 +5331,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8"/>
@@ -5335,7 +5341,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8"/>
@@ -5345,7 +5351,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8"/>
@@ -5355,7 +5361,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
@@ -5365,7 +5371,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -5375,32 +5381,32 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -5417,95 +5423,95 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
@@ -5524,10 +5530,10 @@
     <cfRule type="top10" dxfId="8" priority="3" rank="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="top10" dxfId="1" priority="2" rank="6"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="top10" dxfId="0" priority="1" rank="6"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
@@ -5546,28 +5552,28 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="106.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="5" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="106.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
@@ -5612,7 +5618,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>118</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F18" si="0">D5/$D$24</f>
+        <f t="shared" ref="F5:F6" si="0">D5/$D$24</f>
         <v>0.8960448789875578</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -5639,7 +5645,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -5665,14 +5671,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" s="7"/>
       <c r="F7" s="8"/>
       <c r="I7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="F8" s="8"/>
@@ -5680,7 +5686,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8"/>
@@ -5690,7 +5696,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8"/>
@@ -5700,7 +5706,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="F11" s="8"/>
@@ -5710,7 +5716,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="F12" s="8"/>
@@ -5720,7 +5726,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="F13" s="8"/>
@@ -5730,7 +5736,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="8"/>
@@ -5740,7 +5746,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8"/>
@@ -5750,7 +5756,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8"/>
@@ -5760,7 +5766,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8"/>
@@ -5770,7 +5776,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
@@ -5780,7 +5786,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="F19" s="8"/>
@@ -5790,32 +5796,32 @@
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -5832,111 +5838,111 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F8:F39 F4:F5">
-    <cfRule type="top10" dxfId="7" priority="4" rank="6"/>
+    <cfRule type="top10" dxfId="5" priority="4" rank="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="top10" dxfId="6" priority="3" rank="6"/>
+    <cfRule type="top10" dxfId="4" priority="3" rank="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="top10" dxfId="5" priority="2" rank="6"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="top10" dxfId="4" priority="1" rank="6"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
@@ -5954,27 +5960,27 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="108.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="5" max="6" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="108.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -6021,7 +6027,7 @@
       <c r="K4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>121</v>
       </c>
@@ -6048,7 +6054,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -6075,7 +6081,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -6102,7 +6108,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -6130,7 +6136,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -6160,7 +6166,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -6189,7 +6195,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>123</v>
       </c>
@@ -6218,7 +6224,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>124</v>
       </c>
@@ -6247,7 +6253,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>124</v>
       </c>
@@ -6276,7 +6282,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>125</v>
       </c>
@@ -6305,7 +6311,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>130</v>
       </c>
@@ -6334,7 +6340,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>134</v>
       </c>
@@ -6363,7 +6369,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>129</v>
       </c>
@@ -6392,7 +6398,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>62</v>
       </c>
@@ -6413,32 +6419,32 @@
       <c r="N18" s="8"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8"/>
       <c r="H21" s="9"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="F23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>3</v>
       </c>
@@ -6455,102 +6461,102 @@
       <c r="G24" s="18"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="8"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="8"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="8"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="F33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="F34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F21:F39 F4:F18">
-    <cfRule type="top10" dxfId="3" priority="15" rank="6"/>
+    <cfRule type="top10" dxfId="1" priority="15" rank="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1"/>

--- a/Miscellaneous/BOM_v1.xlsx
+++ b/Miscellaneous/BOM_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="877"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="877" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Module - Xbee" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="150">
   <si>
     <t>Description</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>End of Life</t>
+  </si>
+  <si>
+    <t>End of life</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4221,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4262,6 +4265,9 @@
       <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -4314,6 +4320,9 @@
       </c>
       <c r="H5" s="9" t="s">
         <v>106</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="14"/>
@@ -4654,6 +4663,7 @@
     <hyperlink ref="H6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
